--- a/dd-web/src/main/webapp/篮球数据模板-格式统一为文本格式.xlsx
+++ b/dd-web/src/main/webapp/篮球数据模板-格式统一为文本格式.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12082\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/H/cp/hmx1/dd-web/src/main/webapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6119C7-7CED-437F-9D2F-49DFE2BFD980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,83 +32,97 @@
     <t>小孩姓名</t>
   </si>
   <si>
+    <t>家长姓名</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>投篮（次）</t>
+  </si>
+  <si>
+    <t>黄埔馆测试场</t>
+  </si>
+  <si>
+    <t>张某</t>
+  </si>
+  <si>
+    <t>张张</t>
+  </si>
+  <si>
+    <t>华蒙星黄埔馆</t>
+  </si>
+  <si>
+    <t>学员类型(华蒙星学员/非学员)</t>
+  </si>
+  <si>
+    <t>华蒙星学员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30秒胯下O字绕滚球（个）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30秒原地单手运球（个)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍球（个）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传球（个）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>性别(1男2女)</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>家长姓名</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
-  <si>
-    <t>投篮（次）</t>
-  </si>
-  <si>
-    <t>黄埔馆测试场</t>
-  </si>
-  <si>
-    <t>张某</t>
-  </si>
-  <si>
-    <t>张张</t>
-  </si>
-  <si>
-    <t>华蒙星黄埔馆</t>
-  </si>
-  <si>
-    <t>学员类型(华蒙星学员/非学员)</t>
-  </si>
-  <si>
-    <t>华蒙星学员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30秒胯下O字绕滚球（个）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30秒原地单手运球（个)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍球（个）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传球（个）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-07-02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级(1小班2中班3大班)</t>
+    <rPh sb="0" eb="1">
+      <t>ban ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>da ban</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -197,6 +215,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -471,32 +490,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="14.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="32" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -504,78 +523,78 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>13700000000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="1">
         <v>7</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
